--- a/新房云任务清单-王霄池.xlsx
+++ b/新房云任务清单-王霄池.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总计划" sheetId="1" r:id="rId1"/>
-    <sheet name="按日期定计划" sheetId="2" r:id="rId2"/>
+    <sheet name="按日期计划" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
   <si>
     <t>权限系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单元测试用时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注（与原系统差异、必要性）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,10 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加表头配置，详情页、编辑页大改。增加模糊搜索功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加上传栋座、单元、房屋的功能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -306,92 +298,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>栋列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栋详</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单详</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼盘逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学区逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求更改，展示方式更改，要做成通用的，供房源调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户型独立出来，为以后的户型库做准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学页</t>
+  </si>
+  <si>
     <t>楼详</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栋列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栋详</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单详</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>户逻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
+    <t>房屋逻辑</t>
+  </si>
+  <si>
+    <t>批量逻辑</t>
+  </si>
+  <si>
+    <t>批页</t>
   </si>
   <si>
     <t>房详</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学页</t>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>栋座逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>楼盘逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单元逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>房屋逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>操作逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学区逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -498,7 +512,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -558,11 +572,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -622,29 +645,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,11 +969,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20:XFD20"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -957,22 +981,20 @@
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="7" width="13.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="8" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="69.875" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="8"/>
+    <col min="4" max="6" width="13.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="8" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="69.875" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="27.75" customHeight="1">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="27.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -981,63 +1003,60 @@
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2">
         <v>14</v>
       </c>
+      <c r="E2" s="2">
+        <v>36</v>
+      </c>
       <c r="F2" s="2">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="G2" s="2">
-        <v>6</v>
+        <f>SUM(D2:F2)</f>
+        <v>56</v>
       </c>
       <c r="H2" s="2">
-        <f>SUM(D2:G2)</f>
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>5</v>
@@ -1048,29 +1067,29 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
       <c r="F3" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <f>SUM(D3:G3)</f>
+        <f>SUM(D3:F3)</f>
         <v>9</v>
       </c>
-      <c r="I3" s="7">
+      <c r="H3" s="7">
         <v>0.3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1081,27 +1100,27 @@
       <c r="D4" s="2">
         <v>14</v>
       </c>
+      <c r="E4" s="2">
+        <v>30</v>
+      </c>
       <c r="F4" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2">
-        <v>6</v>
+        <f t="shared" ref="G4:G28" si="0">SUM(D4:F4)</f>
+        <v>50</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H26" si="0">SUM(D4:G4)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="J4" s="2">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="18" customHeight="1">
+      <c r="J4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,572 +1133,619 @@
       <c r="D5" s="2">
         <v>6</v>
       </c>
+      <c r="E5" s="2">
+        <v>12</v>
+      </c>
       <c r="F5" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="H5" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="H5" s="7">
+        <v>0.9</v>
+      </c>
       <c r="I5" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1">
+      <c r="J5" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2">
         <v>12</v>
       </c>
+      <c r="E6" s="2">
+        <v>60</v>
+      </c>
       <c r="F6" s="2">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
+      <c r="H6" s="7">
+        <v>0.3</v>
+      </c>
       <c r="I6" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="J6" s="7">
         <v>0.5</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1">
+      <c r="J6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2">
         <v>6</v>
       </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
       <c r="F7" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" s="2">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="H7" s="7">
+        <v>0.8</v>
+      </c>
       <c r="I7" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="J7" s="7">
         <v>1</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1">
+      <c r="J7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>6</v>
       </c>
+      <c r="E8" s="2">
+        <v>6</v>
+      </c>
       <c r="F8" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G8" s="2">
-        <v>3</v>
-      </c>
-      <c r="H8" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="H8" s="7">
+        <v>0.8</v>
+      </c>
       <c r="I8" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="J8" s="7">
         <v>0.7</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1">
+      <c r="J8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
         <v>6</v>
       </c>
+      <c r="E9" s="2">
+        <v>24</v>
+      </c>
       <c r="F9" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="G9" s="2">
-        <v>6</v>
-      </c>
-      <c r="H9" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="H9" s="7">
+        <v>0.6</v>
+      </c>
       <c r="I9" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="J9" s="7">
         <v>0.7</v>
       </c>
-      <c r="K9" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1">
+      <c r="J9" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
+      <c r="E10" s="2">
+        <v>18</v>
+      </c>
       <c r="F10" s="2">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2">
-        <v>6</v>
-      </c>
-      <c r="H10" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1">
+      <c r="J10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
       </c>
+      <c r="E11" s="2">
+        <v>6</v>
+      </c>
       <c r="F11" s="2">
         <v>6</v>
       </c>
       <c r="G11" s="2">
-        <v>6</v>
-      </c>
-      <c r="H11" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1">
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1">
+    <row r="12" spans="1:10" ht="18" customHeight="1">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" s="13" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="10">
-        <f>SUM(D14:D21)</f>
-        <v>30</v>
-      </c>
-      <c r="E13" s="10"/>
+        <f>SUM(D14:D23)</f>
+        <v>12</v>
+      </c>
+      <c r="E13" s="10">
+        <f>SUM(E14:E23)</f>
+        <v>318</v>
+      </c>
       <c r="F13" s="10">
-        <f>SUM(F14:F21)</f>
-        <v>350</v>
+        <f>SUM(F14:F23)</f>
+        <v>54</v>
       </c>
       <c r="G13" s="10">
-        <f>SUM(G14:G21)</f>
-        <v>80</v>
-      </c>
-      <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>460</v>
+        <v>384</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.42</v>
       </c>
       <c r="I13" s="11">
-        <v>0.38</v>
-      </c>
-      <c r="J13" s="11">
         <v>0.75</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1">
+      <c r="J13" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>4</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>42</v>
+      </c>
       <c r="F14" s="15">
+        <v>6</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="G14" s="15">
-        <v>10</v>
-      </c>
-      <c r="H14" s="15">
-        <f t="shared" si="0"/>
-        <v>64</v>
+      <c r="H14" s="16">
+        <v>0.2</v>
       </c>
       <c r="I14" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="J14" s="16">
         <v>0.8</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1">
+      <c r="J14" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="15">
+        <v>36</v>
+      </c>
       <c r="F15" s="15">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G15" s="15">
-        <v>10</v>
-      </c>
-      <c r="H15" s="15">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.3</v>
       </c>
       <c r="I15" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="J15" s="16">
         <v>0.9</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1">
+      <c r="J15" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>4</v>
-      </c>
-      <c r="E16" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="15">
+        <v>36</v>
+      </c>
       <c r="F16" s="15">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G16" s="15">
-        <v>10</v>
-      </c>
-      <c r="H16" s="15">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>40</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.25</v>
       </c>
       <c r="I16" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="J16" s="16">
         <v>0.8</v>
       </c>
-      <c r="K16" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18" customHeight="1">
+      <c r="J16" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>4</v>
-      </c>
-      <c r="E17" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>42</v>
+      </c>
       <c r="F17" s="15">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="G17" s="15">
-        <v>10</v>
-      </c>
-      <c r="H17" s="15">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.3</v>
       </c>
       <c r="I17" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="J17" s="16">
         <v>0.8</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1">
+      <c r="J17" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
-        <v>2</v>
-      </c>
-      <c r="E18" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>24</v>
+      </c>
       <c r="F18" s="15">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G18" s="15">
-        <v>8</v>
-      </c>
-      <c r="H18" s="15">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.3</v>
       </c>
       <c r="I18" s="16">
         <v>0.6</v>
       </c>
-      <c r="J18" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1">
+      <c r="J18" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
         <v>6</v>
       </c>
-      <c r="E19" s="15"/>
       <c r="F19" s="15">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="G19" s="15">
-        <v>12</v>
-      </c>
-      <c r="H19" s="15">
         <f t="shared" si="0"/>
-        <v>74</v>
+        <v>10</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.5</v>
       </c>
       <c r="I19" s="16">
-        <v>0.3</v>
-      </c>
-      <c r="J19" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="18" customHeight="1">
+        <v>0.6</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>4</v>
-      </c>
-      <c r="E20" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="15">
+        <v>30</v>
+      </c>
       <c r="F20" s="15">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G20" s="15">
-        <v>8</v>
-      </c>
-      <c r="H20" s="15">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.6</v>
       </c>
       <c r="I20" s="16">
         <v>0.7</v>
       </c>
-      <c r="J20" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="K20" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="18" customHeight="1">
+      <c r="J20" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15">
         <v>2</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="15">
+        <v>42</v>
+      </c>
       <c r="F21" s="15">
+        <v>18</v>
+      </c>
+      <c r="G21" s="15">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1">
+      <c r="A22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15">
+        <v>1</v>
+      </c>
+      <c r="E22" s="15">
         <v>30</v>
       </c>
-      <c r="G21" s="15">
-        <v>12</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="F22" s="15">
+        <v>6</v>
+      </c>
+      <c r="G22" s="15">
         <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="I21" s="16">
+        <v>37</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1">
+      <c r="A23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15">
+        <v>30</v>
+      </c>
+      <c r="F23" s="15">
+        <v>6</v>
+      </c>
+      <c r="G23" s="15">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H23" s="16">
         <v>0.65</v>
       </c>
-      <c r="J21" s="16">
+      <c r="I23" s="16">
         <v>0.1</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1">
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" ht="18" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="J23" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="18" customHeight="1">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="2">
         <v>30</v>
       </c>
-      <c r="F23" s="2">
+      <c r="E25" s="2">
         <v>500</v>
       </c>
-      <c r="G23" s="2">
+      <c r="F25" s="2">
         <v>150</v>
       </c>
-      <c r="H23" s="2">
+      <c r="G25" s="2">
         <f t="shared" si="0"/>
         <v>680</v>
       </c>
-      <c r="I23" s="7">
+      <c r="H25" s="7">
         <v>0.3</v>
       </c>
-      <c r="J23" s="7">
+      <c r="I25" s="7">
         <v>0.7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" ht="18" customHeight="1">
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="18" customHeight="1">
+    <row r="26" spans="1:10" ht="18" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2">
+        <v>23</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="18" customHeight="1">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="2">
         <v>30</v>
       </c>
-      <c r="F26" s="2">
+      <c r="E28" s="2">
         <v>400</v>
       </c>
-      <c r="G26" s="2">
+      <c r="F28" s="2">
         <v>100</v>
       </c>
-      <c r="H26" s="2">
+      <c r="G28" s="2">
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
-      <c r="I26" s="7">
+      <c r="H28" s="7">
         <v>0.3</v>
       </c>
-      <c r="J26" s="7">
+      <c r="I28" s="7">
         <v>0.7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="18" customHeight="1">
-      <c r="A27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" ht="18" customHeight="1">
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" customHeight="1"/>
-    <row r="30" spans="1:11" ht="18" customHeight="1"/>
-    <row r="31" spans="1:11" ht="18" customHeight="1"/>
-    <row r="32" spans="1:11" ht="18" customHeight="1"/>
+    <row r="29" spans="1:10" ht="18" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="18" customHeight="1">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="18" customHeight="1"/>
+    <row r="32" spans="1:10" ht="18" customHeight="1"/>
     <row r="33" ht="18" customHeight="1"/>
     <row r="34" ht="18" customHeight="1"/>
     <row r="35" ht="18" customHeight="1"/>
@@ -1736,6 +1802,8 @@
     <row r="86" ht="18" customHeight="1"/>
     <row r="87" ht="18" customHeight="1"/>
     <row r="88" ht="18" customHeight="1"/>
+    <row r="89" ht="18" customHeight="1"/>
+    <row r="90" ht="18" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1746,433 +1814,405 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW4"/>
+  <dimension ref="A1:BQ4"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3:AR3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="55" width="4.625" customWidth="1"/>
-    <col min="56" max="66" width="2.625" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="49" width="4.625" customWidth="1"/>
+    <col min="50" max="60" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" ht="20.25">
-      <c r="B1" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-      <c r="AX1" s="28"/>
-      <c r="AY1" s="28"/>
-      <c r="AZ1" s="28"/>
-      <c r="BA1" s="28"/>
-      <c r="BB1" s="28"/>
-      <c r="BC1" s="28"/>
-    </row>
-    <row r="2" spans="1:75" ht="19.5" customHeight="1">
+    <row r="1" spans="1:69" ht="20.25">
+      <c r="B1" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
+      <c r="AW1" s="31"/>
+    </row>
+    <row r="2" spans="1:69" ht="19.5" customHeight="1">
       <c r="A2" s="19"/>
-      <c r="B2" s="26">
+      <c r="B2" s="23">
+        <v>8</v>
+      </c>
+      <c r="C2" s="23">
+        <v>9</v>
+      </c>
+      <c r="D2" s="23">
+        <v>10</v>
+      </c>
+      <c r="E2" s="23">
+        <v>11</v>
+      </c>
+      <c r="F2" s="23">
+        <v>12</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23">
+        <v>15</v>
+      </c>
+      <c r="I2" s="23">
+        <v>16</v>
+      </c>
+      <c r="J2" s="23">
+        <v>17</v>
+      </c>
+      <c r="K2" s="23">
+        <v>18</v>
+      </c>
+      <c r="L2" s="23">
+        <v>19</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="23">
+        <v>22</v>
+      </c>
+      <c r="O2" s="23">
+        <v>23</v>
+      </c>
+      <c r="P2" s="23">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>25</v>
+      </c>
+      <c r="R2" s="23">
+        <v>26</v>
+      </c>
+      <c r="S2" s="24"/>
+      <c r="T2" s="23">
+        <v>29</v>
+      </c>
+      <c r="U2" s="23">
+        <v>30</v>
+      </c>
+      <c r="V2" s="23">
+        <v>31</v>
+      </c>
+      <c r="W2" s="23">
         <v>1</v>
       </c>
-      <c r="C2" s="26">
+      <c r="X2" s="23">
         <v>2</v>
       </c>
-      <c r="D2" s="26">
-        <v>3</v>
-      </c>
-      <c r="E2" s="26">
-        <v>4</v>
-      </c>
-      <c r="F2" s="26">
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="23">
         <v>5</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="26">
+      <c r="AA2" s="23">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="23">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="23">
         <v>8</v>
       </c>
-      <c r="I2" s="26">
+      <c r="AD2" s="23">
         <v>9</v>
       </c>
-      <c r="J2" s="26">
-        <v>10</v>
-      </c>
-      <c r="K2" s="26">
-        <v>11</v>
-      </c>
-      <c r="L2" s="26">
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="23">
         <v>12</v>
       </c>
-      <c r="M2" s="30"/>
-      <c r="N2" s="26">
+      <c r="AG2" s="23">
+        <v>13</v>
+      </c>
+      <c r="AH2" s="23">
+        <v>14</v>
+      </c>
+      <c r="AI2" s="23">
         <v>15</v>
       </c>
-      <c r="O2" s="26">
+      <c r="AJ2" s="23">
         <v>16</v>
       </c>
-      <c r="P2" s="26">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="26">
-        <v>18</v>
-      </c>
-      <c r="R2" s="26">
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="23">
         <v>19</v>
       </c>
-      <c r="S2" s="30"/>
-      <c r="T2" s="26">
+      <c r="AM2" s="23">
+        <v>20</v>
+      </c>
+      <c r="AN2" s="23">
+        <v>21</v>
+      </c>
+      <c r="AO2" s="23">
         <v>22</v>
       </c>
-      <c r="U2" s="26">
+      <c r="AP2" s="23">
         <v>23</v>
       </c>
-      <c r="V2" s="26">
-        <v>24</v>
-      </c>
-      <c r="W2" s="26">
-        <v>25</v>
-      </c>
-      <c r="X2" s="26">
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="23">
         <v>26</v>
       </c>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="26">
+      <c r="AS2" s="23">
+        <v>27</v>
+      </c>
+      <c r="AT2" s="23">
+        <v>28</v>
+      </c>
+      <c r="AU2" s="23">
         <v>29</v>
       </c>
-      <c r="AA2" s="26">
+      <c r="AV2" s="23">
         <v>30</v>
       </c>
-      <c r="AB2" s="26">
-        <v>31</v>
-      </c>
-      <c r="AC2" s="26">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="26">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="26">
-        <v>5</v>
-      </c>
-      <c r="AG2" s="26">
-        <v>6</v>
-      </c>
-      <c r="AH2" s="26">
-        <v>7</v>
-      </c>
-      <c r="AI2" s="26">
-        <v>8</v>
-      </c>
-      <c r="AJ2" s="26">
-        <v>9</v>
-      </c>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="26">
-        <v>12</v>
-      </c>
-      <c r="AM2" s="26">
-        <v>13</v>
-      </c>
-      <c r="AN2" s="26">
-        <v>14</v>
-      </c>
-      <c r="AO2" s="26">
-        <v>15</v>
-      </c>
-      <c r="AP2" s="26">
-        <v>16</v>
-      </c>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="26">
-        <v>19</v>
-      </c>
-      <c r="AS2" s="26">
-        <v>20</v>
-      </c>
-      <c r="AT2" s="26">
-        <v>21</v>
-      </c>
-      <c r="AU2" s="26">
-        <v>22</v>
-      </c>
-      <c r="AV2" s="26">
-        <v>23</v>
-      </c>
-      <c r="AW2" s="30"/>
-      <c r="AX2" s="26">
-        <v>26</v>
-      </c>
-      <c r="AY2" s="26">
-        <v>27</v>
-      </c>
-      <c r="AZ2" s="26">
-        <v>28</v>
-      </c>
-      <c r="BA2" s="26">
-        <v>29</v>
-      </c>
-      <c r="BB2" s="26">
-        <v>30</v>
-      </c>
-      <c r="BC2" s="30"/>
+      <c r="AW2" s="24"/>
+      <c r="BK2">
+        <v>45</v>
+      </c>
+      <c r="BL2">
+        <v>46</v>
+      </c>
+      <c r="BM2">
+        <v>47</v>
+      </c>
+      <c r="BN2">
+        <v>48</v>
+      </c>
+      <c r="BO2">
+        <v>49</v>
+      </c>
+      <c r="BP2">
+        <v>50</v>
+      </c>
       <c r="BQ2">
-        <v>45</v>
-      </c>
-      <c r="BR2">
-        <v>46</v>
-      </c>
-      <c r="BS2">
-        <v>47</v>
-      </c>
-      <c r="BT2">
-        <v>48</v>
-      </c>
-      <c r="BU2">
-        <v>49</v>
-      </c>
-      <c r="BV2">
-        <v>50</v>
-      </c>
-      <c r="BW2">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:69">
       <c r="A3" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25" t="s">
         <v>75</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="23" t="s">
+      <c r="K3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="22"/>
+      <c r="AS3" s="22"/>
+      <c r="AT3" s="21"/>
+      <c r="AU3" s="21"/>
+      <c r="AV3" s="21"/>
+      <c r="AW3" s="19"/>
+    </row>
+    <row r="4" spans="1:69">
+      <c r="A4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="29" t="s">
+      <c r="F4" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="U4" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG3" s="22" t="s">
+      <c r="V4" s="28"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="AH3" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ3" s="29"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT3" s="29"/>
-      <c r="AU3" s="29"/>
-      <c r="AV3" s="29"/>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="22"/>
-      <c r="AZ3" s="21"/>
-      <c r="BA3" s="21"/>
-      <c r="BB3" s="21"/>
-      <c r="BC3" s="19"/>
-    </row>
-    <row r="4" spans="1:75">
-      <c r="A4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC4" s="29"/>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="AG4" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="29"/>
-      <c r="AU4" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="AV4" s="29"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25"/>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="20"/>
+      <c r="AR4" s="21"/>
+      <c r="AS4" s="21"/>
+      <c r="AT4" s="21"/>
+      <c r="AU4" s="21"/>
+      <c r="AV4" s="21"/>
       <c r="AW4" s="19"/>
-      <c r="AX4" s="21"/>
-      <c r="AY4" s="21"/>
-      <c r="AZ4" s="21"/>
-      <c r="BA4" s="21"/>
-      <c r="BB4" s="21"/>
-      <c r="BC4" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AH3:AJ3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AS3:AX3"/>
-    <mergeCell ref="B1:AB1"/>
-    <mergeCell ref="AC1:BC1"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AR4:AT4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AL4:AM4"/>
+  <mergeCells count="22">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="J4:O4"/>
+    <mergeCell ref="F4:I4"/>
     <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="X3:AC3"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="W1:AW1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新房云任务清单-王霄池.xlsx
+++ b/新房云任务清单-王霄池.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="总计划" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
   <si>
     <t>权限系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,18 +242,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详情页、编辑页大改。增加模糊搜索功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>详情页、编辑页大改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>房屋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,10 +254,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加模糊搜索功能。增加管理界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>批量上传</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>增加模糊搜索功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审核页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求更改，展示方式更改，要做成通用的，供房源调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>户型独立出来，为以后的户型库做准备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,6 +386,34 @@
   </si>
   <si>
     <t>操作逻辑</t>
+  </si>
+  <si>
+    <t>新增需求。模糊搜索功能。调用变更模块实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求更改，展示方式更改，且要做成通用的，供房源调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加模糊搜索功能。更改不规范代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页、编辑页大改。增加模糊搜索功能。更改审核机制。更改不规范代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页、编辑页大改。增加模糊搜索功能。更改审核机制。更改不规范代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页、编辑页大改。更改审核机制。更改不规范代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情页、编辑页大改。户型独立出去。更改审核机制。更改不规范代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -651,22 +659,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,9 +979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1370,10 +1378,12 @@
         <v>384</v>
       </c>
       <c r="H13" s="11">
-        <v>0.42</v>
+        <f>SUMPRODUCT(E14:E23,H14:H23)/SUM(E14:E23)</f>
+        <v>0.39716981132075468</v>
       </c>
       <c r="I13" s="11">
-        <v>0.75</v>
+        <f>SUMPRODUCT(E14:E23,I14:I23)/SUM(E14:E23)</f>
+        <v>0.71320754716981138</v>
       </c>
       <c r="J13" s="12" t="s">
         <v>36</v>
@@ -1399,13 +1409,13 @@
         <v>50</v>
       </c>
       <c r="H14" s="16">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I14" s="16">
         <v>0.8</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
@@ -1428,18 +1438,18 @@
         <v>40</v>
       </c>
       <c r="H15" s="16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I15" s="16">
         <v>0.9</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
       <c r="A16" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1457,18 +1467,18 @@
         <v>40</v>
       </c>
       <c r="H16" s="16">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I16" s="16">
         <v>0.8</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
       <c r="A17" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1486,18 +1496,18 @@
         <v>46</v>
       </c>
       <c r="H17" s="16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I17" s="16">
         <v>0.8</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1521,12 +1531,12 @@
         <v>0.6</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -1544,18 +1554,18 @@
         <v>10</v>
       </c>
       <c r="H19" s="16">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I19" s="16">
         <v>0.6</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1">
       <c r="A20" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
@@ -1573,18 +1583,18 @@
         <v>34</v>
       </c>
       <c r="H20" s="16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I20" s="16">
         <v>0.7</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="15"/>
@@ -1613,7 +1623,7 @@
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
@@ -1631,18 +1641,18 @@
         <v>37</v>
       </c>
       <c r="H22" s="16">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I22" s="16">
         <v>0.9</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1">
       <c r="A23" s="18" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -1660,13 +1670,13 @@
         <v>37</v>
       </c>
       <c r="H23" s="16">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="I23" s="16">
         <v>0.1</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1">
@@ -1816,7 +1826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BQ4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -1828,31 +1838,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="20.25">
-      <c r="B1" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
+      <c r="B1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
       <c r="W1" s="31" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="X1" s="31"/>
       <c r="Y1" s="31"/>
@@ -2035,76 +2045,76 @@
     </row>
     <row r="3" spans="1:69">
       <c r="A3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="21" t="s">
+      <c r="R3" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="P3" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q3" s="22" t="s">
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM3" s="25"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM3" s="26"/>
       <c r="AN3" s="22"/>
       <c r="AO3" s="22"/>
       <c r="AP3" s="22"/>
-      <c r="AQ3" s="30"/>
+      <c r="AQ3" s="25"/>
       <c r="AR3" s="22"/>
       <c r="AS3" s="22"/>
       <c r="AT3" s="21"/>
@@ -2114,70 +2124,70 @@
     </row>
     <row r="4" spans="1:69">
       <c r="A4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="U4" s="27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="V4" s="28"/>
       <c r="W4" s="29"/>
       <c r="X4" s="27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y4" s="28"/>
       <c r="Z4" s="29"/>
-      <c r="AA4" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="30"/>
+      <c r="AA4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="25"/>
       <c r="AF4" s="28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AG4" s="29"/>
-      <c r="AH4" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
+      <c r="AH4" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
       <c r="AN4" s="22"/>
       <c r="AO4" s="22"/>
       <c r="AP4" s="22"/>
@@ -2191,28 +2201,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="W1:AW1"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="U3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="U4:W4"/>
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="J4:O4"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="W1:AW1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新房云任务清单-王霄池.xlsx
+++ b/新房云任务清单-王霄池.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="94">
   <si>
     <t>权限系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -413,6 +413,22 @@
   </si>
   <si>
     <t>详情页、编辑页大改。户型独立出去。更改审核机制。更改不规范代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霄池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霄池</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,6 +679,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,12 +692,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -980,8 +996,8 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1393,8 +1409,12 @@
       <c r="A14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
+      <c r="B14" s="15">
+        <v>4</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="D14" s="15">
         <v>2</v>
       </c>
@@ -1422,8 +1442,12 @@
       <c r="A15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
+      <c r="B15" s="15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="D15" s="15">
         <v>1</v>
       </c>
@@ -1451,8 +1475,12 @@
       <c r="A16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
+      <c r="B16" s="15">
+        <v>4</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="D16" s="15">
         <v>1</v>
       </c>
@@ -1480,8 +1508,12 @@
       <c r="A17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
+      <c r="B17" s="15">
+        <v>4</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="D17" s="15">
         <v>1</v>
       </c>
@@ -1509,8 +1541,12 @@
       <c r="A18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="15">
+        <v>3</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="D18" s="15">
         <v>1</v>
       </c>
@@ -1538,8 +1574,12 @@
       <c r="A19" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="15">
+        <v>3</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="D19" s="15">
         <v>1</v>
       </c>
@@ -1567,8 +1607,12 @@
       <c r="A20" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
+      <c r="B20" s="15">
+        <v>4</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="D20" s="15">
         <v>1</v>
       </c>
@@ -1596,8 +1640,12 @@
       <c r="A21" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="15">
+        <v>4</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="D21" s="15">
         <v>2</v>
       </c>
@@ -1625,8 +1673,12 @@
       <c r="A22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
+      <c r="B22" s="15">
+        <v>4</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="D22" s="15">
         <v>1</v>
       </c>
@@ -1654,8 +1706,12 @@
       <c r="A23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
+      <c r="B23" s="15">
+        <v>4</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="D23" s="15">
         <v>1</v>
       </c>
@@ -1827,7 +1883,7 @@
   <dimension ref="A1:BQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="J4" sqref="J4:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1838,58 +1894,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:69" ht="20.25">
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="31" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
-      <c r="AQ1" s="31"/>
-      <c r="AR1" s="31"/>
-      <c r="AS1" s="31"/>
-      <c r="AT1" s="31"/>
-      <c r="AU1" s="31"/>
-      <c r="AV1" s="31"/>
-      <c r="AW1" s="31"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
+      <c r="AL1" s="28"/>
+      <c r="AM1" s="28"/>
+      <c r="AN1" s="28"/>
+      <c r="AO1" s="28"/>
+      <c r="AP1" s="28"/>
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
     </row>
     <row r="2" spans="1:69" ht="19.5" customHeight="1">
       <c r="A2" s="19"/>
@@ -2157,16 +2213,16 @@
       <c r="T4" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="27" t="s">
+      <c r="V4" s="30"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="29"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="31"/>
       <c r="AA4" s="26" t="s">
         <v>67</v>
       </c>
@@ -2176,10 +2232,10 @@
       </c>
       <c r="AD4" s="26"/>
       <c r="AE4" s="25"/>
-      <c r="AF4" s="28" t="s">
+      <c r="AF4" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="AG4" s="29"/>
+      <c r="AG4" s="31"/>
       <c r="AH4" s="26" t="s">
         <v>79</v>
       </c>
@@ -2201,6 +2257,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="J4:O4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B1:V1"/>
@@ -2217,12 +2279,6 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="J4:O4"/>
-    <mergeCell ref="F4:I4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新房云任务清单-王霄池.xlsx
+++ b/新房云任务清单-王霄池.xlsx
@@ -266,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求大改，需使用新开发的审核工作流组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>康</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,6 +425,10 @@
   </si>
   <si>
     <t>霄池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共15个页面，需求大改，使用新的模版页，需使用新开发的审核工作流组件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -996,8 +996,8 @@
   <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1413,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D14" s="15">
         <v>2</v>
@@ -1435,7 +1435,7 @@
         <v>0.8</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="18" customHeight="1">
@@ -1446,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="15">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>0.9</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="18" customHeight="1">
@@ -1479,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D16" s="15">
         <v>1</v>
@@ -1501,7 +1501,7 @@
         <v>0.8</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
@@ -1512,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D17" s="15">
         <v>1</v>
@@ -1534,18 +1534,18 @@
         <v>0.8</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1">
       <c r="A18" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="15">
         <v>3</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="15">
         <v>1</v>
@@ -1567,18 +1567,18 @@
         <v>0.6</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="15">
         <v>3</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="15">
         <v>1</v>
@@ -1600,7 +1600,7 @@
         <v>0.6</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1">
@@ -1611,7 +1611,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="15">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0.7</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1">
@@ -1644,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="15">
         <v>2</v>
@@ -1677,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D22" s="15">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>0.9</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1">
@@ -1710,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D23" s="15">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>0.1</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18" customHeight="1">
@@ -1895,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:69" ht="20.25">
       <c r="B1" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -1918,7 +1918,7 @@
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X1" s="28"/>
       <c r="Y1" s="28"/>
@@ -2101,45 +2101,45 @@
     </row>
     <row r="3" spans="1:69">
       <c r="A3" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" s="26"/>
       <c r="G3" s="25"/>
       <c r="H3" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
       <c r="O3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="Q3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="22" t="s">
-        <v>55</v>
-      </c>
       <c r="R3" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S3" s="26"/>
       <c r="T3" s="26"/>
       <c r="U3" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V3" s="26"/>
       <c r="W3" s="26"/>
@@ -2147,24 +2147,24 @@
       <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
       <c r="AA3" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB3" s="26"/>
       <c r="AC3" s="26"/>
       <c r="AD3" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AE3" s="26"/>
       <c r="AF3" s="26"/>
       <c r="AG3" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AH3" s="26"/>
       <c r="AI3" s="26"/>
       <c r="AJ3" s="26"/>
       <c r="AK3" s="25"/>
       <c r="AL3" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM3" s="26"/>
       <c r="AN3" s="22"/>
@@ -2180,24 +2180,24 @@
     </row>
     <row r="4" spans="1:69">
       <c r="A4" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
       <c r="J4" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
@@ -2205,39 +2205,39 @@
       <c r="N4" s="26"/>
       <c r="O4" s="26"/>
       <c r="P4" s="26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
       <c r="S4" s="25"/>
       <c r="T4" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U4" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V4" s="30"/>
       <c r="W4" s="31"/>
       <c r="X4" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y4" s="30"/>
       <c r="Z4" s="31"/>
       <c r="AA4" s="26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB4" s="26"/>
       <c r="AC4" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AD4" s="26"/>
       <c r="AE4" s="25"/>
       <c r="AF4" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG4" s="31"/>
       <c r="AH4" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI4" s="26"/>
       <c r="AJ4" s="26"/>
@@ -2257,12 +2257,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="J4:O4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B1:V1"/>
@@ -2279,6 +2273,12 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="H3:J3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="J4:O4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/新房云任务清单-王霄池.xlsx
+++ b/新房云任务清单-王霄池.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="12240" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总计划" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,6 +532,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -679,6 +685,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,6 +702,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,7 +1007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
@@ -1880,74 +1892,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BQ4"/>
+  <dimension ref="A1:BR4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="49" width="4.625" customWidth="1"/>
-    <col min="50" max="60" width="2.625" customWidth="1"/>
+    <col min="2" max="18" width="4.625" customWidth="1"/>
+    <col min="19" max="19" width="2.625" customWidth="1"/>
+    <col min="20" max="50" width="4.625" customWidth="1"/>
+    <col min="51" max="61" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="20.25">
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:70" ht="20.25">
+      <c r="B1" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="28" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="28"/>
-      <c r="AO1" s="28"/>
-      <c r="AP1" s="28"/>
-      <c r="AQ1" s="28"/>
-      <c r="AR1" s="28"/>
-      <c r="AS1" s="28"/>
-      <c r="AT1" s="28"/>
-      <c r="AU1" s="28"/>
-      <c r="AV1" s="28"/>
-      <c r="AW1" s="28"/>
-    </row>
-    <row r="2" spans="1:69" ht="19.5" customHeight="1">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+    </row>
+    <row r="2" spans="1:70" ht="19.5" customHeight="1">
       <c r="A2" s="19"/>
       <c r="B2" s="23">
         <v>8</v>
@@ -1996,134 +2011,135 @@
       <c r="R2" s="23">
         <v>26</v>
       </c>
-      <c r="S2" s="24"/>
-      <c r="T2" s="23">
+      <c r="S2" s="33"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="23">
         <v>29</v>
       </c>
-      <c r="U2" s="23">
+      <c r="V2" s="23">
         <v>30</v>
       </c>
-      <c r="V2" s="23">
+      <c r="W2" s="23">
         <v>31</v>
       </c>
-      <c r="W2" s="23">
+      <c r="X2" s="23">
         <v>1</v>
       </c>
-      <c r="X2" s="23">
+      <c r="Y2" s="23">
         <v>2</v>
       </c>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="23">
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="23">
         <v>5</v>
       </c>
-      <c r="AA2" s="23">
+      <c r="AB2" s="23">
         <v>6</v>
       </c>
-      <c r="AB2" s="23">
+      <c r="AC2" s="23">
         <v>7</v>
       </c>
-      <c r="AC2" s="23">
+      <c r="AD2" s="23">
         <v>8</v>
       </c>
-      <c r="AD2" s="23">
+      <c r="AE2" s="23">
         <v>9</v>
       </c>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="23">
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="23">
         <v>12</v>
       </c>
-      <c r="AG2" s="23">
+      <c r="AH2" s="23">
         <v>13</v>
       </c>
-      <c r="AH2" s="23">
+      <c r="AI2" s="23">
         <v>14</v>
       </c>
-      <c r="AI2" s="23">
+      <c r="AJ2" s="23">
         <v>15</v>
       </c>
-      <c r="AJ2" s="23">
+      <c r="AK2" s="23">
         <v>16</v>
       </c>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="23">
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="23">
         <v>19</v>
       </c>
-      <c r="AM2" s="23">
+      <c r="AN2" s="23">
         <v>20</v>
       </c>
-      <c r="AN2" s="23">
+      <c r="AO2" s="23">
         <v>21</v>
       </c>
-      <c r="AO2" s="23">
+      <c r="AP2" s="23">
         <v>22</v>
       </c>
-      <c r="AP2" s="23">
+      <c r="AQ2" s="23">
         <v>23</v>
       </c>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="23">
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="23">
         <v>26</v>
       </c>
-      <c r="AS2" s="23">
+      <c r="AT2" s="23">
         <v>27</v>
       </c>
-      <c r="AT2" s="23">
+      <c r="AU2" s="23">
         <v>28</v>
       </c>
-      <c r="AU2" s="23">
+      <c r="AV2" s="23">
         <v>29</v>
       </c>
-      <c r="AV2" s="23">
+      <c r="AW2" s="23">
         <v>30</v>
       </c>
-      <c r="AW2" s="24"/>
-      <c r="BK2">
+      <c r="AX2" s="24"/>
+      <c r="BL2">
         <v>45</v>
       </c>
-      <c r="BL2">
+      <c r="BM2">
         <v>46</v>
       </c>
-      <c r="BM2">
+      <c r="BN2">
         <v>47</v>
       </c>
-      <c r="BN2">
+      <c r="BO2">
         <v>48</v>
       </c>
-      <c r="BO2">
+      <c r="BP2">
         <v>49</v>
       </c>
-      <c r="BP2">
+      <c r="BQ2">
         <v>50</v>
       </c>
-      <c r="BQ2">
+      <c r="BR2">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:70">
       <c r="A3" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="26"/>
+      <c r="F3" s="27"/>
       <c r="G3" s="25"/>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
       <c r="O3" s="21" t="s">
         <v>52</v>
       </c>
@@ -2133,152 +2149,154 @@
       <c r="Q3" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26" t="s">
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26" t="s">
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26" t="s">
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26" t="s">
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="26" t="s">
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="22"/>
+      <c r="AN3" s="27"/>
       <c r="AO3" s="22"/>
       <c r="AP3" s="22"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="22"/>
+      <c r="AQ3" s="22"/>
+      <c r="AR3" s="25"/>
       <c r="AS3" s="22"/>
-      <c r="AT3" s="21"/>
+      <c r="AT3" s="22"/>
       <c r="AU3" s="21"/>
       <c r="AV3" s="21"/>
-      <c r="AW3" s="19"/>
-    </row>
-    <row r="4" spans="1:69">
+      <c r="AW3" s="21"/>
+      <c r="AX3" s="19"/>
+    </row>
+    <row r="4" spans="1:70">
       <c r="A4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26" t="s">
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="21" t="s">
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="29" t="s">
+      <c r="V4" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="30"/>
       <c r="W4" s="31"/>
-      <c r="X4" s="29" t="s">
+      <c r="X4" s="32"/>
+      <c r="Y4" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="Y4" s="30"/>
       <c r="Z4" s="31"/>
-      <c r="AA4" s="26" t="s">
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26" t="s">
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="30" t="s">
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="26" t="s">
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="22"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
       <c r="AO4" s="22"/>
       <c r="AP4" s="22"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="21"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="20"/>
       <c r="AS4" s="21"/>
       <c r="AT4" s="21"/>
       <c r="AU4" s="21"/>
       <c r="AV4" s="21"/>
-      <c r="AW4" s="19"/>
+      <c r="AW4" s="21"/>
+      <c r="AX4" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="J4:O4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="W1:AW1"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="U3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="X1:AX1"/>
+    <mergeCell ref="AI4:AN4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AE3:AG3"/>
+    <mergeCell ref="AH3:AK3"/>
+    <mergeCell ref="V3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="K3:N3"/>
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="J4:O4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
